--- a/branches/master/ValueSet-vs-arvtreatment-activity-type.xlsx
+++ b/branches/master/ValueSet-vs-arvtreatment-activity-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-10T13:23:24+00:00</t>
+    <t>2023-02-10T14:00:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-arvtreatment-activity-type.xlsx
+++ b/branches/master/ValueSet-vs-arvtreatment-activity-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-10T14:00:13+00:00</t>
+    <t>2023-02-13T07:50:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-arvtreatment-activity-type.xlsx
+++ b/branches/master/ValueSet-vs-arvtreatment-activity-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-13T07:50:39+00:00</t>
+    <t>2023-02-13T11:48:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-arvtreatment-activity-type.xlsx
+++ b/branches/master/ValueSet-vs-arvtreatment-activity-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-13T11:48:16+00:00</t>
+    <t>2023-02-13T14:52:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-arvtreatment-activity-type.xlsx
+++ b/branches/master/ValueSet-vs-arvtreatment-activity-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-13T14:52:44+00:00</t>
+    <t>2023-02-13T15:10:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-arvtreatment-activity-type.xlsx
+++ b/branches/master/ValueSet-vs-arvtreatment-activity-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-13T15:10:15+00:00</t>
+    <t>2023-02-13T15:20:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-arvtreatment-activity-type.xlsx
+++ b/branches/master/ValueSet-vs-arvtreatment-activity-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-13T15:20:12+00:00</t>
+    <t>2023-02-13T15:22:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-arvtreatment-activity-type.xlsx
+++ b/branches/master/ValueSet-vs-arvtreatment-activity-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-13T15:22:00+00:00</t>
+    <t>2023-02-14T06:22:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-arvtreatment-activity-type.xlsx
+++ b/branches/master/ValueSet-vs-arvtreatment-activity-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-14T06:22:43+00:00</t>
+    <t>2023-02-14T09:55:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-arvtreatment-activity-type.xlsx
+++ b/branches/master/ValueSet-vs-arvtreatment-activity-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-14T09:55:25+00:00</t>
+    <t>2023-02-14T11:18:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-arvtreatment-activity-type.xlsx
+++ b/branches/master/ValueSet-vs-arvtreatment-activity-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-14T11:18:24+00:00</t>
+    <t>2023-02-15T10:47:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-arvtreatment-activity-type.xlsx
+++ b/branches/master/ValueSet-vs-arvtreatment-activity-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-15T10:47:55+00:00</t>
+    <t>2023-02-16T07:29:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-arvtreatment-activity-type.xlsx
+++ b/branches/master/ValueSet-vs-arvtreatment-activity-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-16T07:29:32+00:00</t>
+    <t>2023-02-16T08:22:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-arvtreatment-activity-type.xlsx
+++ b/branches/master/ValueSet-vs-arvtreatment-activity-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-16T08:22:59+00:00</t>
+    <t>2023-02-16T09:19:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-arvtreatment-activity-type.xlsx
+++ b/branches/master/ValueSet-vs-arvtreatment-activity-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-16T09:19:54+00:00</t>
+    <t>2023-02-16T14:00:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-arvtreatment-activity-type.xlsx
+++ b/branches/master/ValueSet-vs-arvtreatment-activity-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-16T14:00:41+00:00</t>
+    <t>2023-02-16T15:02:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-arvtreatment-activity-type.xlsx
+++ b/branches/master/ValueSet-vs-arvtreatment-activity-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-16T15:02:50+00:00</t>
+    <t>2023-02-17T05:13:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-arvtreatment-activity-type.xlsx
+++ b/branches/master/ValueSet-vs-arvtreatment-activity-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T05:13:50+00:00</t>
+    <t>2023-02-17T06:17:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-arvtreatment-activity-type.xlsx
+++ b/branches/master/ValueSet-vs-arvtreatment-activity-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T06:17:41+00:00</t>
+    <t>2023-02-17T06:28:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-arvtreatment-activity-type.xlsx
+++ b/branches/master/ValueSet-vs-arvtreatment-activity-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T06:28:11+00:00</t>
+    <t>2023-02-17T07:01:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-arvtreatment-activity-type.xlsx
+++ b/branches/master/ValueSet-vs-arvtreatment-activity-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T07:01:10+00:00</t>
+    <t>2023-02-17T09:02:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-arvtreatment-activity-type.xlsx
+++ b/branches/master/ValueSet-vs-arvtreatment-activity-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T09:02:45+00:00</t>
+    <t>2023-02-18T08:46:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-arvtreatment-activity-type.xlsx
+++ b/branches/master/ValueSet-vs-arvtreatment-activity-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T08:46:50+00:00</t>
+    <t>2023-02-18T10:23:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-arvtreatment-activity-type.xlsx
+++ b/branches/master/ValueSet-vs-arvtreatment-activity-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T10:23:53+00:00</t>
+    <t>2023-02-18T11:25:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-arvtreatment-activity-type.xlsx
+++ b/branches/master/ValueSet-vs-arvtreatment-activity-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T11:25:07+00:00</t>
+    <t>2023-02-18T15:24:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-arvtreatment-activity-type.xlsx
+++ b/branches/master/ValueSet-vs-arvtreatment-activity-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T15:24:19+00:00</t>
+    <t>2023-02-20T07:40:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-arvtreatment-activity-type.xlsx
+++ b/branches/master/ValueSet-vs-arvtreatment-activity-type.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-20T07:40:50+00:00</t>
+    <t>2023-02-27T06:44:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -82,6 +82,9 @@
   </si>
   <si>
     <t>Description</t>
+  </si>
+  <si>
+    <t>Codes used to represent a medication request for ART.</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -348,27 +351,27 @@
         <v>22</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -390,7 +393,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s" s="1">
         <v>22</v>
@@ -398,26 +401,26 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/branches/master/ValueSet-vs-arvtreatment-activity-type.xlsx
+++ b/branches/master/ValueSet-vs-arvtreatment-activity-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-27T06:44:17+00:00</t>
+    <t>2023-02-27T10:45:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-arvtreatment-activity-type.xlsx
+++ b/branches/master/ValueSet-vs-arvtreatment-activity-type.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0-test</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-27T10:45:48+00:00</t>
+    <t>2023-02-27T12:41:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-arvtreatment-activity-type.xlsx
+++ b/branches/master/ValueSet-vs-arvtreatment-activity-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-27T12:41:19+00:00</t>
+    <t>2023-02-27T14:23:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-arvtreatment-activity-type.xlsx
+++ b/branches/master/ValueSet-vs-arvtreatment-activity-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-27T14:23:13+00:00</t>
+    <t>2023-02-28T11:11:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-arvtreatment-activity-type.xlsx
+++ b/branches/master/ValueSet-vs-arvtreatment-activity-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-28T11:11:02+00:00</t>
+    <t>2023-03-01T08:13:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-arvtreatment-activity-type.xlsx
+++ b/branches/master/ValueSet-vs-arvtreatment-activity-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-01T08:13:34+00:00</t>
+    <t>2023-03-02T06:11:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-arvtreatment-activity-type.xlsx
+++ b/branches/master/ValueSet-vs-arvtreatment-activity-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T06:11:23+00:00</t>
+    <t>2023-03-02T06:38:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-arvtreatment-activity-type.xlsx
+++ b/branches/master/ValueSet-vs-arvtreatment-activity-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T06:38:00+00:00</t>
+    <t>2023-03-03T10:25:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-arvtreatment-activity-type.xlsx
+++ b/branches/master/ValueSet-vs-arvtreatment-activity-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T10:25:55+00:00</t>
+    <t>2023-03-03T14:03:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-arvtreatment-activity-type.xlsx
+++ b/branches/master/ValueSet-vs-arvtreatment-activity-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T14:03:01+00:00</t>
+    <t>2023-03-03T14:47:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-arvtreatment-activity-type.xlsx
+++ b/branches/master/ValueSet-vs-arvtreatment-activity-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T14:47:25+00:00</t>
+    <t>2023-03-03T15:27:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-arvtreatment-activity-type.xlsx
+++ b/branches/master/ValueSet-vs-arvtreatment-activity-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T15:27:50+00:00</t>
+    <t>2023-03-03T16:14:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-arvtreatment-activity-type.xlsx
+++ b/branches/master/ValueSet-vs-arvtreatment-activity-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T16:14:01+00:00</t>
+    <t>2023-03-04T09:00:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-arvtreatment-activity-type.xlsx
+++ b/branches/master/ValueSet-vs-arvtreatment-activity-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-04T09:00:22+00:00</t>
+    <t>2023-03-07T16:19:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-arvtreatment-activity-type.xlsx
+++ b/branches/master/ValueSet-vs-arvtreatment-activity-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-07T16:19:15+00:00</t>
+    <t>2023-03-07T17:24:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-arvtreatment-activity-type.xlsx
+++ b/branches/master/ValueSet-vs-arvtreatment-activity-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-07T17:24:01+00:00</t>
+    <t>2023-03-08T15:33:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-arvtreatment-activity-type.xlsx
+++ b/branches/master/ValueSet-vs-arvtreatment-activity-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-08T15:33:26+00:00</t>
+    <t>2023-04-04T11:11:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
